--- a/show.xlsx
+++ b/show.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofnelincoln-my.sharepoint.com/personal/pkundu2_unl_edu/Documents/FunwithR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{A53517E2-4344-614B-AC29-E8A03FD3AEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81AD6A88-A3FB-9343-AF49-583B27BE06E2}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{A53517E2-4344-614B-AC29-E8A03FD3AEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF9EA1F-4C24-5543-AA84-9AFE06AAADAC}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{1C3D5E2B-2170-8543-B604-380EF530B255}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="152">
   <si>
     <t>Melissa and Joey</t>
   </si>
@@ -423,6 +423,75 @@
   </si>
   <si>
     <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>Season 4 Part 2</t>
+  </si>
+  <si>
+    <t>She Said</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Shadow and Bone</t>
+  </si>
+  <si>
+    <t>Detachment</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>The Elephant Whisperers</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>Documentary</t>
+  </si>
+  <si>
+    <t>Gaslight</t>
+  </si>
+  <si>
+    <t>Jury Duty</t>
+  </si>
+  <si>
+    <t>Freevee</t>
+  </si>
+  <si>
+    <t>The Truman Show</t>
+  </si>
+  <si>
+    <t>Showtime</t>
+  </si>
+  <si>
+    <t>Shehzada</t>
+  </si>
+  <si>
+    <t>Chennai Express</t>
+  </si>
+  <si>
+    <t>Crazy Rich Asians</t>
+  </si>
+  <si>
+    <t>Modern Family</t>
+  </si>
+  <si>
+    <t>The Rookie</t>
+  </si>
+  <si>
+    <t>Indian Matchmaking</t>
+  </si>
+  <si>
+    <t>season 3</t>
+  </si>
+  <si>
+    <t>The Hangover</t>
+  </si>
+  <si>
+    <t>Tu Jhoothi Main Makkar</t>
   </si>
 </sst>
 </file>
@@ -502,10 +571,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -807,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D2BEA6-AE38-E14F-BC39-8FB04EF74A86}">
   <dimension ref="A1:AE1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O97" sqref="O97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3570,7 +3635,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:31">
       <c r="A81" s="1" t="s">
         <v>112</v>
       </c>
@@ -3603,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:31">
       <c r="A82" s="1" t="s">
         <v>113</v>
       </c>
@@ -3638,7 +3703,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:31">
       <c r="A83" s="1" t="s">
         <v>114</v>
       </c>
@@ -3671,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:31">
       <c r="A84" s="1" t="s">
         <v>115</v>
       </c>
@@ -3704,7 +3769,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:31">
       <c r="A85" s="1" t="s">
         <v>116</v>
       </c>
@@ -3739,7 +3804,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:31">
       <c r="A86" s="1" t="s">
         <v>118</v>
       </c>
@@ -3772,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:31">
       <c r="A87" s="1" t="s">
         <v>119</v>
       </c>
@@ -3807,7 +3872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:31">
       <c r="A88" s="1" t="s">
         <v>121</v>
       </c>
@@ -3840,7 +3905,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:31">
       <c r="A89" s="1" t="s">
         <v>122</v>
       </c>
@@ -3875,7 +3940,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:31">
       <c r="A90" s="1" t="s">
         <v>123</v>
       </c>
@@ -3910,7 +3975,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:31">
       <c r="A91" s="1" t="s">
         <v>124</v>
       </c>
@@ -3945,7 +4010,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:31">
       <c r="A92" s="1" t="s">
         <v>125</v>
       </c>
@@ -3980,7 +4045,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:31">
       <c r="A93" s="1" t="s">
         <v>126</v>
       </c>
@@ -4013,7 +4078,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:31">
       <c r="A94" s="1" t="s">
         <v>127</v>
       </c>
@@ -4046,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:31">
       <c r="A95" s="1" t="s">
         <v>128</v>
       </c>
@@ -4075,103 +4140,1005 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11">
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="5:5">
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="5:5">
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="5:5">
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="5:5">
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="5:5">
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="5:5">
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="5:5">
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="5:5">
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="5:5">
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="5:5">
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="5:5">
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="5:5">
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="5:5">
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="5:5">
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="5:5">
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="5:5">
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="5:5">
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="5:5">
+    <row r="96" spans="1:31">
+      <c r="A96" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G96" s="1">
+        <v>5</v>
+      </c>
+      <c r="H96" s="3">
+        <v>44999</v>
+      </c>
+      <c r="I96" s="3">
+        <v>45000</v>
+      </c>
+      <c r="J96" s="1">
+        <v>2</v>
+      </c>
+      <c r="K96" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="2"/>
+    </row>
+    <row r="97" spans="1:31">
+      <c r="A97" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="H97" s="3">
+        <v>45003</v>
+      </c>
+      <c r="I97" s="3">
+        <v>45003</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1">
+        <v>1</v>
+      </c>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
+      <c r="AD97" s="2"/>
+      <c r="AE97" s="2"/>
+    </row>
+    <row r="98" spans="1:31">
+      <c r="A98" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="1">
+        <v>8</v>
+      </c>
+      <c r="H98" s="3">
+        <v>45007</v>
+      </c>
+      <c r="I98" s="3">
+        <v>45013</v>
+      </c>
+      <c r="J98" s="1">
+        <v>7</v>
+      </c>
+      <c r="K98" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
+      <c r="AB98" s="2"/>
+      <c r="AC98" s="2"/>
+      <c r="AD98" s="2"/>
+      <c r="AE98" s="2"/>
+    </row>
+    <row r="99" spans="1:31">
+      <c r="A99" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="3">
+        <v>45008</v>
+      </c>
+      <c r="I99" s="3">
+        <v>45008</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1">
+        <v>1</v>
+      </c>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
+      <c r="AB99" s="2"/>
+      <c r="AC99" s="2"/>
+      <c r="AD99" s="2"/>
+      <c r="AE99" s="2"/>
+    </row>
+    <row r="100" spans="1:31">
+      <c r="A100" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3">
+        <v>45013</v>
+      </c>
+      <c r="I100" s="3">
+        <v>45013</v>
+      </c>
+      <c r="J100" s="1">
+        <v>1</v>
+      </c>
+      <c r="K100" s="1">
+        <v>1</v>
+      </c>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
+      <c r="AB100" s="2"/>
+      <c r="AC100" s="2"/>
+      <c r="AD100" s="2"/>
+      <c r="AE100" s="2"/>
+    </row>
+    <row r="101" spans="1:31">
+      <c r="A101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>13</v>
+      </c>
+      <c r="H101" s="3">
+        <v>45014</v>
+      </c>
+      <c r="I101" s="3">
+        <v>45028</v>
+      </c>
+      <c r="J101" s="1">
+        <v>15</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
+      <c r="AB101" s="2"/>
+      <c r="AC101" s="2"/>
+      <c r="AD101" s="2"/>
+      <c r="AE101" s="2"/>
+    </row>
+    <row r="102" spans="1:31">
+      <c r="A102" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="3">
+        <v>45017</v>
+      </c>
+      <c r="I102" s="3">
+        <v>45017</v>
+      </c>
+      <c r="J102" s="1">
+        <v>1</v>
+      </c>
+      <c r="K102" s="1">
+        <v>1</v>
+      </c>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="2"/>
+      <c r="AC102" s="2"/>
+      <c r="AD102" s="2"/>
+      <c r="AE102" s="2"/>
+    </row>
+    <row r="103" spans="1:31">
+      <c r="A103" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1">
+        <v>8</v>
+      </c>
+      <c r="H103" s="3">
+        <v>45027</v>
+      </c>
+      <c r="I103" s="3">
+        <v>45039</v>
+      </c>
+      <c r="J103" s="1">
+        <v>13</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="2"/>
+      <c r="AD103" s="2"/>
+      <c r="AE103" s="2"/>
+    </row>
+    <row r="104" spans="1:31">
+      <c r="A104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="1">
+        <v>22</v>
+      </c>
+      <c r="H104" s="3">
+        <v>45030</v>
+      </c>
+      <c r="I104" s="5"/>
+      <c r="J104" s="1">
+        <v>-45029</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
+      <c r="AB104" s="2"/>
+      <c r="AC104" s="2"/>
+      <c r="AD104" s="2"/>
+      <c r="AE104" s="2"/>
+    </row>
+    <row r="105" spans="1:31">
+      <c r="A105" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="1">
+        <v>1</v>
+      </c>
+      <c r="H105" s="3">
+        <v>45032</v>
+      </c>
+      <c r="I105" s="3">
+        <v>45032</v>
+      </c>
+      <c r="J105" s="1">
+        <v>1</v>
+      </c>
+      <c r="K105" s="1">
+        <v>1</v>
+      </c>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
+      <c r="AB105" s="2"/>
+      <c r="AC105" s="2"/>
+      <c r="AD105" s="2"/>
+      <c r="AE105" s="2"/>
+    </row>
+    <row r="106" spans="1:31">
+      <c r="A106" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" s="1">
+        <v>1</v>
+      </c>
+      <c r="H106" s="3">
+        <v>45034</v>
+      </c>
+      <c r="I106" s="3">
+        <v>45034</v>
+      </c>
+      <c r="J106" s="1">
+        <v>1</v>
+      </c>
+      <c r="K106" s="1">
+        <v>1</v>
+      </c>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+      <c r="AB106" s="2"/>
+      <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
+      <c r="AE106" s="2"/>
+    </row>
+    <row r="107" spans="1:31">
+      <c r="A107" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="1">
+        <v>1</v>
+      </c>
+      <c r="H107" s="3">
+        <v>45034</v>
+      </c>
+      <c r="I107" s="3">
+        <v>45035</v>
+      </c>
+      <c r="J107" s="1">
+        <v>2</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
+      <c r="AC107" s="2"/>
+      <c r="AD107" s="2"/>
+      <c r="AE107" s="2"/>
+    </row>
+    <row r="108" spans="1:31">
+      <c r="A108" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="1">
+        <v>1</v>
+      </c>
+      <c r="H108" s="3">
+        <v>45035</v>
+      </c>
+      <c r="I108" s="3">
+        <v>45035</v>
+      </c>
+      <c r="J108" s="1">
+        <v>1</v>
+      </c>
+      <c r="K108" s="1">
+        <v>1</v>
+      </c>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
+      <c r="AC108" s="2"/>
+      <c r="AD108" s="2"/>
+      <c r="AE108" s="2"/>
+    </row>
+    <row r="109" spans="1:31">
+      <c r="A109" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F109" s="1">
+        <v>11</v>
+      </c>
+      <c r="G109" s="1">
+        <v>251</v>
+      </c>
+      <c r="H109" s="3">
+        <v>45035</v>
+      </c>
+      <c r="I109" s="5"/>
+      <c r="J109" s="1">
+        <v>-45034</v>
+      </c>
+      <c r="K109" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
+    </row>
+    <row r="110" spans="1:31">
+      <c r="A110" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F110" s="1">
+        <v>5</v>
+      </c>
+      <c r="G110" s="1">
+        <v>98</v>
+      </c>
+      <c r="H110" s="3">
+        <v>45035</v>
+      </c>
+      <c r="I110" s="5"/>
+      <c r="J110" s="1">
+        <v>-45034</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
+      <c r="AD110" s="2"/>
+      <c r="AE110" s="2"/>
+    </row>
+    <row r="111" spans="1:31">
+      <c r="A111" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G111" s="1">
+        <v>8</v>
+      </c>
+      <c r="H111" s="3">
+        <v>45038</v>
+      </c>
+      <c r="I111" s="3">
+        <v>45039</v>
+      </c>
+      <c r="J111" s="1">
+        <v>2</v>
+      </c>
+      <c r="K111" s="1">
+        <v>4</v>
+      </c>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
+      <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
+    </row>
+    <row r="112" spans="1:31">
+      <c r="A112" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3">
+        <v>45045</v>
+      </c>
+      <c r="I112" s="3">
+        <v>45045</v>
+      </c>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="2"/>
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="2"/>
+      <c r="AB112" s="2"/>
+      <c r="AC112" s="2"/>
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
+    </row>
+    <row r="113" spans="1:31">
+      <c r="A113" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3">
+        <v>45049</v>
+      </c>
+      <c r="I113" s="3">
+        <v>45050</v>
+      </c>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="2"/>
+      <c r="AB113" s="2"/>
+      <c r="AC113" s="2"/>
+      <c r="AD113" s="2"/>
+      <c r="AE113" s="2"/>
+    </row>
+    <row r="114" spans="1:31">
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="5:5">
+    <row r="115" spans="1:31">
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="5:5">
+    <row r="116" spans="1:31">
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="5:5">
+    <row r="117" spans="1:31">
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="5:5">
+    <row r="118" spans="1:31">
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="5:5">
+    <row r="119" spans="1:31">
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="5:5">
+    <row r="120" spans="1:31">
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="5:5">
+    <row r="121" spans="1:31">
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="5:5">
+    <row r="122" spans="1:31">
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="5:5">
+    <row r="123" spans="1:31">
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="5:5">
+    <row r="124" spans="1:31">
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="5:5">
+    <row r="125" spans="1:31">
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="5:5">
+    <row r="126" spans="1:31">
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="5:5">
+    <row r="127" spans="1:31">
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="5:5">
+    <row r="128" spans="1:31">
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="5:5">

--- a/show.xlsx
+++ b/show.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofnelincoln-my.sharepoint.com/personal/pkundu2_unl_edu/Documents/FunwithR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{A53517E2-4344-614B-AC29-E8A03FD3AEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF9EA1F-4C24-5543-AA84-9AFE06AAADAC}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{A53517E2-4344-614B-AC29-E8A03FD3AEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F3EF43D-51F1-A949-885E-BC74763BE0F8}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{1C3D5E2B-2170-8543-B604-380EF530B255}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="151">
   <si>
     <t>Melissa and Joey</t>
   </si>
@@ -387,9 +387,6 @@
   </si>
   <si>
     <t>Class</t>
-  </si>
-  <si>
-    <t>Show</t>
   </si>
   <si>
     <t>Perfume: The Story of a Murderer</t>
@@ -571,6 +568,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -872,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D2BEA6-AE38-E14F-BC39-8FB04EF74A86}">
   <dimension ref="A1:AE1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O97" sqref="O97"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3780,7 +3781,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>100</v>
@@ -3806,7 +3807,7 @@
     </row>
     <row r="86" spans="1:31">
       <c r="A86" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>105</v>
@@ -3839,7 +3840,7 @@
     </row>
     <row r="87" spans="1:31">
       <c r="A87" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>6</v>
@@ -3854,7 +3855,7 @@
         <v>100</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G87" s="1">
         <v>5</v>
@@ -3874,7 +3875,7 @@
     </row>
     <row r="88" spans="1:31">
       <c r="A88" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>6</v>
@@ -3907,7 +3908,7 @@
     </row>
     <row r="89" spans="1:31">
       <c r="A89" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>6</v>
@@ -3942,7 +3943,7 @@
     </row>
     <row r="90" spans="1:31">
       <c r="A90" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>1</v>
@@ -3977,7 +3978,7 @@
     </row>
     <row r="91" spans="1:31">
       <c r="A91" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>32</v>
@@ -4012,7 +4013,7 @@
     </row>
     <row r="92" spans="1:31">
       <c r="A92" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>6</v>
@@ -4047,7 +4048,7 @@
     </row>
     <row r="93" spans="1:31">
       <c r="A93" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>38</v>
@@ -4080,7 +4081,7 @@
     </row>
     <row r="94" spans="1:31">
       <c r="A94" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>32</v>
@@ -4113,7 +4114,7 @@
     </row>
     <row r="95" spans="1:31">
       <c r="A95" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>38</v>
@@ -4142,7 +4143,7 @@
     </row>
     <row r="96" spans="1:31">
       <c r="A96" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>6</v>
@@ -4157,7 +4158,7 @@
         <v>100</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G96" s="1">
         <v>5</v>
@@ -4197,10 +4198,10 @@
     </row>
     <row r="97" spans="1:31">
       <c r="A97" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
@@ -4250,7 +4251,7 @@
     </row>
     <row r="98" spans="1:31">
       <c r="A98" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>6</v>
@@ -4305,10 +4306,10 @@
     </row>
     <row r="99" spans="1:31">
       <c r="A99" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -4358,16 +4359,16 @@
     </row>
     <row r="100" spans="1:31">
       <c r="A100" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>100</v>
@@ -4466,7 +4467,7 @@
     </row>
     <row r="102" spans="1:31">
       <c r="A102" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>1</v>
@@ -4519,10 +4520,10 @@
     </row>
     <row r="103" spans="1:31">
       <c r="A103" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -4627,10 +4628,10 @@
     </row>
     <row r="105" spans="1:31">
       <c r="A105" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -4680,7 +4681,7 @@
     </row>
     <row r="106" spans="1:31">
       <c r="A106" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>6</v>
@@ -4733,7 +4734,7 @@
     </row>
     <row r="107" spans="1:31">
       <c r="A107" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>6</v>
@@ -4786,7 +4787,7 @@
     </row>
     <row r="108" spans="1:31">
       <c r="A108" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>38</v>
@@ -4839,7 +4840,7 @@
     </row>
     <row r="109" spans="1:31">
       <c r="A109" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>1</v>
@@ -4892,7 +4893,7 @@
     </row>
     <row r="110" spans="1:31">
       <c r="A110" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>1</v>
@@ -4945,7 +4946,7 @@
     </row>
     <row r="111" spans="1:31">
       <c r="A111" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>6</v>
@@ -4960,7 +4961,7 @@
         <v>100</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G111" s="1">
         <v>8</v>
@@ -5000,7 +5001,7 @@
     </row>
     <row r="112" spans="1:31">
       <c r="A112" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>6</v>
@@ -5049,7 +5050,7 @@
     </row>
     <row r="113" spans="1:31">
       <c r="A113" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>6</v>
